--- a/_docs/trim_02/Contextualizacion Proyecto/CRONOGRAMA.xlsx
+++ b/_docs/trim_02/Contextualizacion Proyecto/CRONOGRAMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccifu\OneDrive\Escritorio\AXXION_SYSTEM\_docs\trim_02\Contextualizacion Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AXXION_SYSTEM_\_docs\trim_02\Contextualizacion Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D858DAA5-8A67-4EA6-AEB8-9885A3819D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F563D7-75AB-4282-AF34-36FDF17EF6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{BDBCAF2D-A385-4AA0-8577-99B6B885FDBE}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>LAB</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>TAREA</t>
-  </si>
-  <si>
-    <t>Gestionar Usuarios</t>
   </si>
   <si>
     <t>VER</t>
@@ -207,6 +204,30 @@
   <si>
     <t>Cristian Camilo Cifuentes</t>
   </si>
+  <si>
+    <t>Desarrollar Usuarios</t>
+  </si>
+  <si>
+    <t>Desarrollar Inventario</t>
+  </si>
+  <si>
+    <t>Desarrollar Categorías</t>
+  </si>
+  <si>
+    <t>Desarrollar Subcategorías</t>
+  </si>
+  <si>
+    <t>Desarrollar Alquiler</t>
+  </si>
+  <si>
+    <t>Desarrollar Mantenimiento</t>
+  </si>
+  <si>
+    <t>Desarrollar Alertas</t>
+  </si>
+  <si>
+    <t>Desarrollar Reportes</t>
+  </si>
 </sst>
 </file>
 
@@ -214,12 +235,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="ddd\ dd/mm/yy"/>
-    <numFmt numFmtId="166" formatCode="d"/>
-    <numFmt numFmtId="167" formatCode="d\ mmm\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="m/d/yyyy\ \(dddd\)"/>
-    <numFmt numFmtId="169" formatCode="d/m/yyyy\ \(dddd\)"/>
+    <numFmt numFmtId="165" formatCode="d"/>
+    <numFmt numFmtId="166" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy\ \(dddd\)"/>
+    <numFmt numFmtId="168" formatCode="d/m/yyyy\ \(dddd\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -782,37 +803,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -849,6 +839,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -859,7 +873,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -964,19 +978,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -987,7 +1001,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
@@ -1031,111 +1045,98 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1698,9 +1699,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1749,12 +1750,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44144967-FDB6-458B-85C4-3A56431CCBEA}">
   <dimension ref="A1:BQ60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.6640625" style="2" customWidth="1"/>
@@ -1770,291 +1771,291 @@
     <col min="69" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="54" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-      <c r="BG1" s="67"/>
-      <c r="BH1" s="67"/>
-      <c r="BI1" s="67"/>
-      <c r="BJ1" s="67"/>
-      <c r="BK1" s="67"/>
-      <c r="BL1" s="67"/>
-      <c r="BM1" s="67"/>
-      <c r="BN1" s="67"/>
-      <c r="BO1" s="67"/>
-      <c r="BP1" s="67"/>
+    <row r="1" spans="1:68" s="54" customFormat="1" ht="5.0999999999999996" customHeight="1">
+      <c r="A1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
+      <c r="R1" s="72"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="72"/>
+      <c r="U1" s="72"/>
+      <c r="V1" s="72"/>
+      <c r="W1" s="72"/>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="72"/>
+      <c r="Z1" s="72"/>
+      <c r="AA1" s="72"/>
+      <c r="AB1" s="72"/>
+      <c r="AC1" s="72"/>
+      <c r="AD1" s="72"/>
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="72"/>
+      <c r="AH1" s="72"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="72"/>
+      <c r="AO1" s="72"/>
+      <c r="AP1" s="72"/>
+      <c r="AQ1" s="72"/>
+      <c r="AR1" s="72"/>
+      <c r="AS1" s="72"/>
+      <c r="AT1" s="72"/>
+      <c r="AU1" s="72"/>
+      <c r="AV1" s="72"/>
+      <c r="AW1" s="72"/>
+      <c r="AX1" s="72"/>
+      <c r="AY1" s="72"/>
+      <c r="AZ1" s="72"/>
+      <c r="BA1" s="72"/>
+      <c r="BB1" s="72"/>
+      <c r="BC1" s="72"/>
+      <c r="BD1" s="72"/>
+      <c r="BE1" s="72"/>
+      <c r="BF1" s="72"/>
+      <c r="BG1" s="72"/>
+      <c r="BH1" s="72"/>
+      <c r="BI1" s="72"/>
+      <c r="BJ1" s="72"/>
+      <c r="BK1" s="72"/>
+      <c r="BL1" s="72"/>
+      <c r="BM1" s="72"/>
+      <c r="BN1" s="72"/>
+      <c r="BO1" s="72"/>
+      <c r="BP1" s="72"/>
     </row>
-    <row r="2" spans="1:68" s="57" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+    <row r="2" spans="1:68" s="57" customFormat="1" ht="20.399999999999999">
+      <c r="A2" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="68"/>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="68"/>
-      <c r="BH2" s="68"/>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="68"/>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="69"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73"/>
+      <c r="BE2" s="73"/>
+      <c r="BF2" s="73"/>
+      <c r="BG2" s="73"/>
+      <c r="BH2" s="73"/>
+      <c r="BI2" s="73"/>
+      <c r="BJ2" s="73"/>
+      <c r="BK2" s="73"/>
+      <c r="BL2" s="73"/>
+      <c r="BM2" s="73"/>
+      <c r="BN2" s="73"/>
+      <c r="BO2" s="73"/>
+      <c r="BP2" s="74"/>
     </row>
-    <row r="3" spans="1:68" s="57" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A3" s="68" t="s">
+    <row r="3" spans="1:68" s="57" customFormat="1" ht="20.399999999999999">
+      <c r="A3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
-      <c r="AZ3" s="68"/>
-      <c r="BA3" s="68"/>
-      <c r="BB3" s="68"/>
-      <c r="BC3" s="68"/>
-      <c r="BD3" s="68"/>
-      <c r="BE3" s="68"/>
-      <c r="BF3" s="68"/>
-      <c r="BG3" s="68"/>
-      <c r="BH3" s="68"/>
-      <c r="BI3" s="68"/>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="68"/>
-      <c r="BM3" s="68"/>
-      <c r="BN3" s="68"/>
-      <c r="BO3" s="68"/>
-      <c r="BP3" s="69"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="74"/>
     </row>
-    <row r="4" spans="1:68" s="54" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="70"/>
-      <c r="AO4" s="70"/>
-      <c r="AP4" s="70"/>
-      <c r="AQ4" s="70"/>
-      <c r="AR4" s="70"/>
-      <c r="AS4" s="70"/>
-      <c r="AT4" s="70"/>
-      <c r="AU4" s="70"/>
-      <c r="AV4" s="70"/>
-      <c r="AW4" s="70"/>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="70"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="70"/>
-      <c r="BH4" s="70"/>
-      <c r="BI4" s="70"/>
-      <c r="BJ4" s="70"/>
-      <c r="BK4" s="70"/>
-      <c r="BL4" s="70"/>
-      <c r="BM4" s="70"/>
-      <c r="BN4" s="70"/>
-      <c r="BO4" s="70"/>
-      <c r="BP4" s="71"/>
+    <row r="4" spans="1:68" s="54" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="75"/>
+      <c r="AQ4" s="75"/>
+      <c r="AR4" s="75"/>
+      <c r="AS4" s="75"/>
+      <c r="AT4" s="75"/>
+      <c r="AU4" s="75"/>
+      <c r="AV4" s="75"/>
+      <c r="AW4" s="75"/>
+      <c r="AX4" s="75"/>
+      <c r="AY4" s="75"/>
+      <c r="AZ4" s="75"/>
+      <c r="BA4" s="75"/>
+      <c r="BB4" s="75"/>
+      <c r="BC4" s="75"/>
+      <c r="BD4" s="75"/>
+      <c r="BE4" s="75"/>
+      <c r="BF4" s="75"/>
+      <c r="BG4" s="75"/>
+      <c r="BH4" s="75"/>
+      <c r="BI4" s="75"/>
+      <c r="BJ4" s="75"/>
+      <c r="BK4" s="75"/>
+      <c r="BL4" s="75"/>
+      <c r="BM4" s="75"/>
+      <c r="BN4" s="75"/>
+      <c r="BO4" s="75"/>
+      <c r="BP4" s="76"/>
     </row>
-    <row r="5" spans="1:68" s="54" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" s="54" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
@@ -2124,7 +2125,7 @@
       <c r="BO5" s="56"/>
       <c r="BP5" s="55"/>
     </row>
-    <row r="6" spans="1:68" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" ht="18" customHeight="1">
       <c r="A6" s="53"/>
       <c r="B6" s="52"/>
       <c r="C6" s="50"/>
@@ -2137,7 +2138,7 @@
       <c r="J6" s="46"/>
       <c r="BP6" s="44"/>
     </row>
-    <row r="7" spans="1:68" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" ht="12" customHeight="1">
       <c r="A7" s="47"/>
       <c r="J7" s="46"/>
       <c r="M7" s="45"/>
@@ -2159,194 +2160,194 @@
       <c r="AC7" s="45"/>
       <c r="BP7" s="44"/>
     </row>
-    <row r="8" spans="1:68" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" ht="17.25" customHeight="1">
       <c r="B8" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="86">
         <v>45580</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="J8" s="42">
         <v>42</v>
       </c>
-      <c r="M8" s="59" t="str">
+      <c r="M8" s="81" t="str">
         <f>"Semana "&amp;(M10-($C$8-WEEKDAY($C$8,1)+2))/7+1</f>
         <v>Semana 42</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="59" t="str">
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="81" t="str">
         <f>"Semana "&amp;(T10-($C$8-WEEKDAY($C$8,1)+2))/7+1</f>
         <v>Semana 43</v>
       </c>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="61"/>
-      <c r="AA8" s="59" t="str">
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="81" t="str">
         <f>"Semana "&amp;(AA10-($C$8-WEEKDAY($C$8,1)+2))/7+1</f>
         <v>Semana 44</v>
       </c>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="59" t="str">
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="81" t="str">
         <f>"Semana "&amp;(AH10-($C$8-WEEKDAY($C$8,1)+2))/7+1</f>
         <v>Semana 45</v>
       </c>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="61"/>
-      <c r="AO8" s="59" t="str">
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="81" t="str">
         <f>"Semana "&amp;(AO10-($C$8-WEEKDAY($C$8,1)+2))/7+1</f>
         <v>Semana 46</v>
       </c>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="60"/>
-      <c r="AU8" s="61"/>
-      <c r="AV8" s="59" t="str">
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="81" t="str">
         <f>"Semana "&amp;(AV10-($C$8-WEEKDAY($C$8,1)+2))/7+1</f>
         <v>Semana 47</v>
       </c>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="60"/>
-      <c r="AZ8" s="60"/>
-      <c r="BA8" s="60"/>
-      <c r="BB8" s="61"/>
-      <c r="BC8" s="59" t="str">
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="82"/>
+      <c r="BB8" s="83"/>
+      <c r="BC8" s="81" t="str">
         <f>"Semana "&amp;(BC10-($C$8-WEEKDAY($C$8,1)+2))/7+1</f>
         <v>Semana 48</v>
       </c>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="60"/>
-      <c r="BG8" s="60"/>
-      <c r="BH8" s="60"/>
-      <c r="BI8" s="61"/>
-      <c r="BJ8" s="59" t="str">
+      <c r="BD8" s="82"/>
+      <c r="BE8" s="82"/>
+      <c r="BF8" s="82"/>
+      <c r="BG8" s="82"/>
+      <c r="BH8" s="82"/>
+      <c r="BI8" s="83"/>
+      <c r="BJ8" s="81" t="str">
         <f>"Semana "&amp;(BJ10-($C$8-WEEKDAY($C$8,1)+2))/7+1</f>
         <v>Semana 49</v>
       </c>
-      <c r="BK8" s="60"/>
-      <c r="BL8" s="60"/>
-      <c r="BM8" s="60"/>
-      <c r="BN8" s="60"/>
-      <c r="BO8" s="60"/>
-      <c r="BP8" s="63"/>
+      <c r="BK8" s="82"/>
+      <c r="BL8" s="82"/>
+      <c r="BM8" s="82"/>
+      <c r="BN8" s="82"/>
+      <c r="BO8" s="82"/>
+      <c r="BP8" s="84"/>
     </row>
-    <row r="9" spans="1:68" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" ht="17.25" customHeight="1">
       <c r="B9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
-      <c r="M9" s="64">
+      <c r="M9" s="77">
         <f>M10</f>
         <v>45866</v>
       </c>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="64">
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="77">
         <f>T10</f>
         <v>45873</v>
       </c>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="64">
+      <c r="U9" s="78"/>
+      <c r="V9" s="78"/>
+      <c r="W9" s="78"/>
+      <c r="X9" s="78"/>
+      <c r="Y9" s="78"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="77">
         <f>AA10</f>
         <v>45880</v>
       </c>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="65"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="64">
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="78"/>
+      <c r="AE9" s="78"/>
+      <c r="AF9" s="78"/>
+      <c r="AG9" s="79"/>
+      <c r="AH9" s="77">
         <f>AH10</f>
         <v>45887</v>
       </c>
-      <c r="AI9" s="65"/>
-      <c r="AJ9" s="65"/>
-      <c r="AK9" s="65"/>
-      <c r="AL9" s="65"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="64">
+      <c r="AI9" s="78"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="78"/>
+      <c r="AL9" s="78"/>
+      <c r="AM9" s="78"/>
+      <c r="AN9" s="79"/>
+      <c r="AO9" s="77">
         <f>AO10</f>
         <v>45894</v>
       </c>
-      <c r="AP9" s="65"/>
-      <c r="AQ9" s="65"/>
-      <c r="AR9" s="65"/>
-      <c r="AS9" s="65"/>
-      <c r="AT9" s="65"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="64">
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
+      <c r="AS9" s="78"/>
+      <c r="AT9" s="78"/>
+      <c r="AU9" s="79"/>
+      <c r="AV9" s="77">
         <f>AV10</f>
         <v>45901</v>
       </c>
-      <c r="AW9" s="65"/>
-      <c r="AX9" s="65"/>
-      <c r="AY9" s="65"/>
-      <c r="AZ9" s="65"/>
-      <c r="BA9" s="65"/>
-      <c r="BB9" s="66"/>
-      <c r="BC9" s="64">
+      <c r="AW9" s="78"/>
+      <c r="AX9" s="78"/>
+      <c r="AY9" s="78"/>
+      <c r="AZ9" s="78"/>
+      <c r="BA9" s="78"/>
+      <c r="BB9" s="79"/>
+      <c r="BC9" s="77">
         <f>BC10</f>
         <v>45908</v>
       </c>
-      <c r="BD9" s="65"/>
-      <c r="BE9" s="65"/>
-      <c r="BF9" s="65"/>
-      <c r="BG9" s="65"/>
-      <c r="BH9" s="65"/>
-      <c r="BI9" s="66"/>
-      <c r="BJ9" s="64">
+      <c r="BD9" s="78"/>
+      <c r="BE9" s="78"/>
+      <c r="BF9" s="78"/>
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="79"/>
+      <c r="BJ9" s="77">
         <f>BJ10</f>
         <v>45915</v>
       </c>
-      <c r="BK9" s="65"/>
-      <c r="BL9" s="65"/>
-      <c r="BM9" s="65"/>
-      <c r="BN9" s="65"/>
-      <c r="BO9" s="65"/>
-      <c r="BP9" s="72"/>
+      <c r="BK9" s="78"/>
+      <c r="BL9" s="78"/>
+      <c r="BM9" s="78"/>
+      <c r="BN9" s="78"/>
+      <c r="BO9" s="78"/>
+      <c r="BP9" s="80"/>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68">
       <c r="M10" s="38">
         <f>C8-WEEKDAY(C8,1)+2+7*(J8-1)</f>
         <v>45866</v>
@@ -2572,11 +2573,11 @@
         <v>45921</v>
       </c>
     </row>
-    <row r="11" spans="1:68" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:68" ht="39.9" customHeight="1" thickBot="1">
       <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="58" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -2832,24 +2833,24 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:68" s="6" customFormat="1" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82" t="s">
+    <row r="12" spans="1:68" s="6" customFormat="1" ht="55.2" customHeight="1">
+      <c r="A12" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="91" t="s">
+      <c r="D12" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="12">
@@ -2862,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="11">
-        <f>IF(OR(I12=0,H12=0)," - ",NETWORKDAYS(H12,I12))</f>
+        <f t="shared" ref="K12:K32" si="4">IF(OR(I12=0,H12=0)," - ",NETWORKDAYS(H12,I12))</f>
         <v>4</v>
       </c>
       <c r="L12" s="20"/>
@@ -2923,14 +2924,14 @@
       <c r="BO12" s="15"/>
       <c r="BP12" s="19"/>
     </row>
-    <row r="13" spans="1:68" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="88"/>
+    <row r="13" spans="1:68" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="88"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="60"/>
       <c r="F13" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="12">
@@ -2943,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="K13" s="11">
-        <f>IF(OR(I13=0,H13=0)," - ",NETWORKDAYS(H13,I13))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L13" s="20"/>
@@ -3004,14 +3005,16 @@
       <c r="BO13" s="15"/>
       <c r="BP13" s="19"/>
     </row>
-    <row r="14" spans="1:68" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="88"/>
+    <row r="14" spans="1:68" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="12">
@@ -3024,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="11">
-        <f>IF(OR(I14=0,H14=0)," - ",NETWORKDAYS(H14,I14))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L14" s="20"/>
@@ -3085,14 +3088,14 @@
       <c r="BO14" s="15"/>
       <c r="BP14" s="19"/>
     </row>
-    <row r="15" spans="1:68" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="88"/>
+    <row r="15" spans="1:68" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="88"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="12">
@@ -3105,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="11">
-        <f>IF(OR(I15=0,H15=0)," - ",NETWORKDAYS(H15,I15))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L15" s="10"/>
@@ -3166,14 +3169,14 @@
       <c r="BO15" s="8"/>
       <c r="BP15" s="7"/>
     </row>
-    <row r="16" spans="1:68" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="89"/>
+    <row r="16" spans="1:68" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="88"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="12">
@@ -3186,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="11">
-        <f>IF(OR(I16=0,H16=0)," - ",NETWORKDAYS(H16,I16))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L16" s="27"/>
@@ -3247,18 +3250,20 @@
       <c r="BO16" s="25"/>
       <c r="BP16" s="24"/>
     </row>
-    <row r="17" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="90" t="s">
-        <v>52</v>
+    <row r="17" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>51</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="12">
@@ -3271,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="11">
-        <f>IF(OR(I17=0,H17=0)," - ",NETWORKDAYS(H17,I17))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L17" s="20"/>
@@ -3332,14 +3337,14 @@
       <c r="BO17" s="15"/>
       <c r="BP17" s="19"/>
     </row>
-    <row r="18" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="88"/>
+    <row r="18" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="88"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="12">
@@ -3352,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="11">
-        <f>IF(OR(I18=0,H18=0)," - ",NETWORKDAYS(H18,I18))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L18" s="10"/>
@@ -3413,14 +3418,14 @@
       <c r="BO18" s="8"/>
       <c r="BP18" s="7"/>
     </row>
-    <row r="19" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="89"/>
+    <row r="19" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="88"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="12">
@@ -3433,7 +3438,7 @@
         <v>1</v>
       </c>
       <c r="K19" s="11">
-        <f>IF(OR(I19=0,H19=0)," - ",NETWORKDAYS(H19,I19))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L19" s="27"/>
@@ -3494,18 +3499,20 @@
       <c r="BO19" s="25"/>
       <c r="BP19" s="24"/>
     </row>
-    <row r="20" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="92"/>
+    <row r="20" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="12">
@@ -3518,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="11">
-        <f>IF(OR(I20=0,H20=0)," - ",NETWORKDAYS(H20,I20))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L20" s="10"/>
@@ -3579,20 +3586,20 @@
       <c r="BO20" s="8"/>
       <c r="BP20" s="7"/>
     </row>
-    <row r="21" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="92"/>
+    <row r="21" spans="1:69" s="6" customFormat="1">
+      <c r="A21" s="88"/>
+      <c r="B21" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="65"/>
       <c r="D21" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="12">
@@ -3602,10 +3609,10 @@
         <v>45882</v>
       </c>
       <c r="J21" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K21" s="11">
-        <f>IF(OR(I21=0,H21=0)," - ",NETWORKDAYS(H21,I21))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L21" s="10"/>
@@ -3666,18 +3673,20 @@
       <c r="BO21" s="8"/>
       <c r="BP21" s="7"/>
     </row>
-    <row r="22" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="92"/>
+    <row r="22" spans="1:69" s="6" customFormat="1">
+      <c r="A22" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="12">
@@ -3687,10 +3696,10 @@
         <v>45884</v>
       </c>
       <c r="J22" s="1">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="K22" s="11">
-        <f>IF(OR(I22=0,H22=0)," - ",NETWORKDAYS(H22,I22))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L22" s="10"/>
@@ -3751,18 +3760,18 @@
       <c r="BO22" s="8"/>
       <c r="BP22" s="7"/>
     </row>
-    <row r="23" spans="1:69" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="92"/>
+    <row r="23" spans="1:69" s="6" customFormat="1" ht="27.6">
+      <c r="A23" s="88"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="21">
@@ -3772,10 +3781,10 @@
         <v>45889</v>
       </c>
       <c r="J23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="22">
-        <f>IF(OR(I23=0,H23=0)," - ",NETWORKDAYS(H23,I23))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L23" s="20"/>
@@ -3836,18 +3845,20 @@
       <c r="BO23" s="15"/>
       <c r="BP23" s="19"/>
     </row>
-    <row r="24" spans="1:69" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="92"/>
+    <row r="24" spans="1:69" s="6" customFormat="1" ht="27.6">
+      <c r="A24" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="63"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="21">
@@ -3857,10 +3868,10 @@
         <v>45891</v>
       </c>
       <c r="J24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="11">
-        <f>IF(OR(I24=0,H24=0)," - ",NETWORKDAYS(H24,I24))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L24" s="20"/>
@@ -3921,18 +3932,18 @@
       <c r="BO24" s="15"/>
       <c r="BP24" s="19"/>
     </row>
-    <row r="25" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="92"/>
+    <row r="25" spans="1:69" s="6" customFormat="1">
+      <c r="A25" s="88"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="13"/>
       <c r="H25" s="12">
@@ -3942,10 +3953,10 @@
         <v>45896</v>
       </c>
       <c r="J25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="11">
-        <f>IF(OR(I25=0,H25=0)," - ",NETWORKDAYS(H25,I25))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L25" s="20"/>
@@ -4006,18 +4017,18 @@
       <c r="BO25" s="15"/>
       <c r="BP25" s="19"/>
     </row>
-    <row r="26" spans="1:69" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="92"/>
+    <row r="26" spans="1:69" s="6" customFormat="1" ht="27.6">
+      <c r="A26" s="88"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="12">
@@ -4030,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="11">
-        <f>IF(OR(I26=0,H26=0)," - ",NETWORKDAYS(H26,I26))</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="L26" s="20"/>
@@ -4091,20 +4102,22 @@
       <c r="BO26" s="15"/>
       <c r="BP26" s="19"/>
     </row>
-    <row r="27" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="90" t="s">
-        <v>51</v>
+    <row r="27" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="65"/>
+      <c r="D27" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="62" t="s">
+        <v>50</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="12">
@@ -4114,10 +4127,10 @@
         <v>45905</v>
       </c>
       <c r="J27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="11">
-        <f>IF(OR(I27=0,H27=0)," - ",NETWORKDAYS(H27,I27))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L27" s="20"/>
@@ -4178,14 +4191,14 @@
       <c r="BO27" s="15"/>
       <c r="BP27" s="19"/>
     </row>
-    <row r="28" spans="1:69" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="83"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="88"/>
+    <row r="28" spans="1:69" s="18" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="88"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="12">
@@ -4195,10 +4208,10 @@
         <v>45905</v>
       </c>
       <c r="J28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="11">
-        <f>IF(OR(I28=0,H28=0)," - ",NETWORKDAYS(H28,I28))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L28" s="20"/>
@@ -4260,14 +4273,14 @@
       <c r="BP28" s="19"/>
       <c r="BQ28" s="4"/>
     </row>
-    <row r="29" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="88"/>
+    <row r="29" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="88"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="12">
@@ -4277,10 +4290,10 @@
         <v>45905</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="11">
-        <f>IF(OR(I29=0,H29=0)," - ",NETWORKDAYS(H29,I29))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L29" s="20"/>
@@ -4342,16 +4355,18 @@
       <c r="BP29" s="19"/>
       <c r="BQ29" s="4"/>
     </row>
-    <row r="30" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="88" t="s">
-        <v>52</v>
+    <row r="30" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="60" t="s">
+        <v>51</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="12">
@@ -4361,10 +4376,10 @@
         <v>45905</v>
       </c>
       <c r="J30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="11">
-        <f>IF(OR(I30=0,H30=0)," - ",NETWORKDAYS(H30,I30))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L30" s="20"/>
@@ -4426,14 +4441,14 @@
       <c r="BP30" s="19"/>
       <c r="BQ30" s="4"/>
     </row>
-    <row r="31" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="88"/>
+    <row r="31" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="88"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="12">
@@ -4443,10 +4458,10 @@
         <v>45905</v>
       </c>
       <c r="J31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="11">
-        <f>IF(OR(I31=0,H31=0)," - ",NETWORKDAYS(H31,I31))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L31" s="20"/>
@@ -4508,14 +4523,14 @@
       <c r="BP31" s="19"/>
       <c r="BQ31" s="4"/>
     </row>
-    <row r="32" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="89"/>
+    <row r="32" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="88"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="12">
@@ -4525,10 +4540,10 @@
         <v>45905</v>
       </c>
       <c r="J32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="11">
-        <f>IF(OR(I32=0,H32=0)," - ",NETWORKDAYS(H32,I32))</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="L32" s="20"/>
@@ -4590,231 +4605,231 @@
       <c r="BP32" s="19"/>
       <c r="BQ32" s="4"/>
     </row>
-    <row r="33" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="73"/>
-      <c r="AC33" s="73"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="73"/>
-      <c r="AF33" s="73"/>
-      <c r="AG33" s="73"/>
-      <c r="AH33" s="73"/>
-      <c r="AI33" s="73"/>
-      <c r="AJ33" s="73"/>
-      <c r="AK33" s="73"/>
-      <c r="AL33" s="73"/>
-      <c r="AM33" s="73"/>
-      <c r="AN33" s="73"/>
-      <c r="AO33" s="73"/>
-      <c r="AP33" s="73"/>
-      <c r="AQ33" s="73"/>
-      <c r="AR33" s="73"/>
-      <c r="AS33" s="73"/>
-      <c r="AT33" s="73"/>
-      <c r="AU33" s="73"/>
-      <c r="AV33" s="73"/>
-      <c r="AW33" s="73"/>
-      <c r="AX33" s="73"/>
-      <c r="AY33" s="73"/>
-      <c r="AZ33" s="73"/>
-      <c r="BA33" s="73"/>
-      <c r="BB33" s="73"/>
-      <c r="BC33" s="73"/>
-      <c r="BD33" s="73"/>
-      <c r="BE33" s="73"/>
-      <c r="BF33" s="73"/>
-      <c r="BG33" s="73"/>
-      <c r="BH33" s="73"/>
-      <c r="BI33" s="73"/>
-      <c r="BJ33" s="73"/>
-      <c r="BK33" s="73"/>
-      <c r="BL33" s="73"/>
-      <c r="BM33" s="73"/>
-      <c r="BN33" s="73"/>
-      <c r="BO33" s="73"/>
-      <c r="BP33" s="73"/>
+    <row r="33" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
+      <c r="BK33" s="5"/>
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
+      <c r="BO33" s="5"/>
+      <c r="BP33" s="5"/>
       <c r="BQ33" s="4"/>
     </row>
-    <row r="34" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="73"/>
-      <c r="D34" s="73"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="73"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
-      <c r="Q34" s="73"/>
-      <c r="R34" s="73"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="73"/>
-      <c r="U34" s="73"/>
-      <c r="V34" s="73"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="73"/>
-      <c r="AC34" s="73"/>
-      <c r="AD34" s="73"/>
-      <c r="AE34" s="73"/>
-      <c r="AF34" s="73"/>
-      <c r="AG34" s="73"/>
-      <c r="AH34" s="73"/>
-      <c r="AI34" s="73"/>
-      <c r="AJ34" s="73"/>
-      <c r="AK34" s="73"/>
-      <c r="AL34" s="73"/>
-      <c r="AM34" s="73"/>
-      <c r="AN34" s="73"/>
-      <c r="AO34" s="73"/>
-      <c r="AP34" s="73"/>
-      <c r="AQ34" s="73"/>
-      <c r="AR34" s="73"/>
-      <c r="AS34" s="73"/>
-      <c r="AT34" s="73"/>
-      <c r="AU34" s="73"/>
-      <c r="AV34" s="73"/>
-      <c r="AW34" s="73"/>
-      <c r="AX34" s="73"/>
-      <c r="AY34" s="73"/>
-      <c r="AZ34" s="73"/>
-      <c r="BA34" s="73"/>
-      <c r="BB34" s="73"/>
-      <c r="BC34" s="73"/>
-      <c r="BD34" s="73"/>
-      <c r="BE34" s="73"/>
-      <c r="BF34" s="73"/>
-      <c r="BG34" s="73"/>
-      <c r="BH34" s="73"/>
-      <c r="BI34" s="73"/>
-      <c r="BJ34" s="73"/>
-      <c r="BK34" s="73"/>
-      <c r="BL34" s="73"/>
-      <c r="BM34" s="73"/>
-      <c r="BN34" s="73"/>
-      <c r="BO34" s="73"/>
-      <c r="BP34" s="73"/>
+    <row r="34" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
+      <c r="BK34" s="5"/>
+      <c r="BL34" s="5"/>
+      <c r="BM34" s="5"/>
+      <c r="BN34" s="5"/>
+      <c r="BO34" s="5"/>
+      <c r="BP34" s="5"/>
       <c r="BQ34" s="4"/>
     </row>
-    <row r="35" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="73"/>
-      <c r="R35" s="73"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="73"/>
-      <c r="U35" s="73"/>
-      <c r="V35" s="73"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="73"/>
-      <c r="AC35" s="73"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="73"/>
-      <c r="AH35" s="73"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="73"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="73"/>
-      <c r="AM35" s="73"/>
-      <c r="AN35" s="73"/>
-      <c r="AO35" s="73"/>
-      <c r="AP35" s="73"/>
-      <c r="AQ35" s="73"/>
-      <c r="AR35" s="73"/>
-      <c r="AS35" s="73"/>
-      <c r="AT35" s="73"/>
-      <c r="AU35" s="73"/>
-      <c r="AV35" s="73"/>
-      <c r="AW35" s="73"/>
-      <c r="AX35" s="73"/>
-      <c r="AY35" s="73"/>
-      <c r="AZ35" s="73"/>
-      <c r="BA35" s="73"/>
-      <c r="BB35" s="73"/>
-      <c r="BC35" s="73"/>
-      <c r="BD35" s="73"/>
-      <c r="BE35" s="73"/>
-      <c r="BF35" s="73"/>
-      <c r="BG35" s="73"/>
-      <c r="BH35" s="73"/>
-      <c r="BI35" s="73"/>
-      <c r="BJ35" s="73"/>
-      <c r="BK35" s="73"/>
-      <c r="BL35" s="73"/>
-      <c r="BM35" s="73"/>
-      <c r="BN35" s="73"/>
-      <c r="BO35" s="73"/>
-      <c r="BP35" s="73"/>
+    <row r="35" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="5"/>
+      <c r="BN35" s="5"/>
+      <c r="BO35" s="5"/>
+      <c r="BP35" s="5"/>
       <c r="BQ35" s="4"/>
     </row>
-    <row r="36" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
+    <row r="36" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
       <c r="L36" s="5"/>
       <c r="M36" s="2"/>
       <c r="N36" s="3"/>
@@ -4874,18 +4889,18 @@
       <c r="BP36" s="3"/>
       <c r="BQ36" s="4"/>
     </row>
-    <row r="37" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
+    <row r="37" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
       <c r="L37" s="5"/>
       <c r="M37" s="2"/>
       <c r="N37" s="3"/>
@@ -4945,18 +4960,18 @@
       <c r="BP37" s="3"/>
       <c r="BQ37" s="4"/>
     </row>
-    <row r="38" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
+    <row r="38" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
       <c r="L38" s="5"/>
       <c r="M38" s="2"/>
       <c r="N38" s="3"/>
@@ -5016,18 +5031,18 @@
       <c r="BP38" s="3"/>
       <c r="BQ38" s="4"/>
     </row>
-    <row r="39" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
+    <row r="39" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
       <c r="L39" s="5"/>
       <c r="M39" s="2"/>
       <c r="N39" s="3"/>
@@ -5087,18 +5102,18 @@
       <c r="BP39" s="3"/>
       <c r="BQ39" s="4"/>
     </row>
-    <row r="40" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="73"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
+    <row r="40" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
       <c r="L40" s="5"/>
       <c r="M40" s="2"/>
       <c r="N40" s="3"/>
@@ -5158,18 +5173,18 @@
       <c r="BP40" s="3"/>
       <c r="BQ40" s="4"/>
     </row>
-    <row r="41" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="73"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
+    <row r="41" spans="1:69" s="6" customFormat="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
       <c r="L41" s="5"/>
       <c r="M41" s="2"/>
       <c r="N41" s="3"/>
@@ -5229,18 +5244,18 @@
       <c r="BP41" s="3"/>
       <c r="BQ41" s="4"/>
     </row>
-    <row r="42" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="73"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="74"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
+    <row r="42" spans="1:69" s="6" customFormat="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
       <c r="L42" s="5"/>
       <c r="M42" s="2"/>
       <c r="N42" s="3"/>
@@ -5300,18 +5315,18 @@
       <c r="BP42" s="3"/>
       <c r="BQ42" s="4"/>
     </row>
-    <row r="43" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
+    <row r="43" spans="1:69" s="6" customFormat="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
       <c r="L43" s="5"/>
       <c r="M43" s="2"/>
       <c r="N43" s="3"/>
@@ -5371,7 +5386,7 @@
       <c r="BP43" s="3"/>
       <c r="BQ43" s="4"/>
     </row>
-    <row r="44" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A44" s="5"/>
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
@@ -5442,7 +5457,7 @@
       <c r="BP44" s="3"/>
       <c r="BQ44" s="4"/>
     </row>
-    <row r="45" spans="1:69" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:69" s="16" customFormat="1" ht="30" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
@@ -5513,7 +5528,7 @@
       <c r="BP45" s="3"/>
       <c r="BQ45" s="4"/>
     </row>
-    <row r="46" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:69" s="6" customFormat="1">
       <c r="A46" s="5"/>
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
@@ -5584,7 +5599,7 @@
       <c r="BP46" s="3"/>
       <c r="BQ46" s="4"/>
     </row>
-    <row r="47" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="5"/>
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
@@ -5655,7 +5670,7 @@
       <c r="BP47" s="3"/>
       <c r="BQ47" s="4"/>
     </row>
-    <row r="48" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
@@ -5726,7 +5741,7 @@
       <c r="BP48" s="3"/>
       <c r="BQ48" s="4"/>
     </row>
-    <row r="49" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
@@ -5797,7 +5812,7 @@
       <c r="BP49" s="3"/>
       <c r="BQ49" s="4"/>
     </row>
-    <row r="50" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:69" s="6" customFormat="1">
       <c r="A50" s="5"/>
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
@@ -5868,7 +5883,7 @@
       <c r="BP50" s="3"/>
       <c r="BQ50" s="4"/>
     </row>
-    <row r="51" spans="1:69" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:69" s="16" customFormat="1" ht="30" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
@@ -5939,7 +5954,7 @@
       <c r="BP51" s="3"/>
       <c r="BQ51" s="4"/>
     </row>
-    <row r="52" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" s="6" customFormat="1">
       <c r="A52" s="5"/>
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
@@ -6010,7 +6025,7 @@
       <c r="BP52" s="3"/>
       <c r="BQ52" s="4"/>
     </row>
-    <row r="53" spans="1:69" s="6" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" s="6" customFormat="1" ht="76.5" customHeight="1">
       <c r="A53" s="5"/>
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
@@ -6081,7 +6096,7 @@
       <c r="BP53" s="3"/>
       <c r="BQ53" s="4"/>
     </row>
-    <row r="54" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69" s="6" customFormat="1">
       <c r="A54" s="5"/>
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
@@ -6152,7 +6167,7 @@
       <c r="BP54" s="3"/>
       <c r="BQ54" s="4"/>
     </row>
-    <row r="55" spans="1:69" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:69" s="6" customFormat="1">
       <c r="A55" s="5"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
@@ -6223,7 +6238,7 @@
       <c r="BP55" s="3"/>
       <c r="BQ55" s="4"/>
     </row>
-    <row r="56" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
@@ -6294,7 +6309,7 @@
       <c r="BP56" s="3"/>
       <c r="BQ56" s="4"/>
     </row>
-    <row r="57" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A57" s="5"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
@@ -6365,7 +6380,7 @@
       <c r="BP57" s="3"/>
       <c r="BQ57" s="4"/>
     </row>
-    <row r="58" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:69" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A58" s="5"/>
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
@@ -6436,7 +6451,7 @@
       <c r="BP58" s="3"/>
       <c r="BQ58" s="4"/>
     </row>
-    <row r="59" spans="1:69" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:69" ht="5.0999999999999996" customHeight="1">
       <c r="L59" s="5"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -6479,7 +6494,7 @@
       <c r="BP59" s="3"/>
       <c r="BQ59" s="4"/>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:69">
       <c r="L60" s="5"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -6525,19 +6540,22 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A11:K58" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <mergeCells count="34">
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="C12:C32"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A12:A32"/>
+  <mergeCells count="41">
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="AO9:AU9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="T8:Z8"/>
+    <mergeCell ref="AA8:AG8"/>
+    <mergeCell ref="AH8:AN8"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A1:BP1"/>
     <mergeCell ref="A2:BP2"/>
     <mergeCell ref="A3:BP3"/>
@@ -6553,13 +6571,17 @@
     <mergeCell ref="T9:Z9"/>
     <mergeCell ref="AA9:AG9"/>
     <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:AU9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:Z8"/>
-    <mergeCell ref="AA8:AG8"/>
-    <mergeCell ref="AH8:AN8"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="C12:C32"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D12:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="J12:J32">
     <cfRule type="dataBar" priority="13">
